--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_6_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_6_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2306601.814701369</v>
+        <v>-2214186.225439232</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.315111702</v>
+        <v>6549343.963692136</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729601</v>
+        <v>340528.8729729598</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13615760.17102024</v>
+        <v>13703209.95415262</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>398.7139339898157</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.235841136991852</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.81515106108805</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8201079258493</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8201079258493</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>16.8201079258493</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>16.8201079258493</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.81515106108805</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>16.8201079258493</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>21.69946940036108</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>231.3474543231437</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>264.0494865272136</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>231.3474543231437</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>231.3474543231437</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>164.6116038659962</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -984,7 +984,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>89.52349879317346</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -993,7 +993,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>208.8556123081871</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.3474543231437</v>
+        <v>185.0783105344431</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>47.40594123029538</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>77.36840186490409</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -1221,16 +1221,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>142.9263566875024</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>28.65754449710876</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1357,7 +1357,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.01732390352663</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C11" t="n">
-        <v>231.342614503749</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8984462069433</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273455</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F11" t="n">
-        <v>379.2992635249225</v>
+        <v>381.1963375379286</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651693</v>
+        <v>369.0172308781754</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.1756420106385</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517078</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291335</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>182.463574811683</v>
+        <v>184.3606488246891</v>
       </c>
       <c r="U11" t="n">
-        <v>216.9690424221582</v>
+        <v>80.83941694267257</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159573</v>
+        <v>310.7154087289634</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552563</v>
+        <v>344.2989274682624</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518102</v>
+        <v>361.0131934648163</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.406461920464</v>
+        <v>361.3035359334701</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.04077576759087</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8615943129739</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>120.3788538293923</v>
+        <v>122.2759278423984</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794369</v>
+        <v>123.677936592443</v>
       </c>
       <c r="F13" t="n">
-        <v>125.4639702295879</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627852</v>
+        <v>129.9541167757913</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>112.4876102546772</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579031</v>
+        <v>79.55881504879642</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042755</v>
+        <v>48.79622075343367</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T13" t="n">
-        <v>199.6324072321381</v>
+        <v>179.8833046794849</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784103</v>
+        <v>244.3463955914164</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6260432089465</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179867</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789358</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069433</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273455</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249225</v>
+        <v>381.1963375379286</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651693</v>
+        <v>369.0172308781754</v>
       </c>
       <c r="H14" t="n">
-        <v>205.2419675800696</v>
+        <v>272.1756420106385</v>
       </c>
       <c r="I14" t="n">
-        <v>47.96740065517078</v>
+        <v>46.33394933219658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.40742005291335</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>182.463574811683</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9690424221582</v>
+        <v>218.8661164351643</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159573</v>
+        <v>310.7154087289634</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>344.2989274682624</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518102</v>
+        <v>361.0131934648163</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.406461920464</v>
+        <v>361.3035359334701</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.3018649291772</v>
+        <v>150.1989389421832</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8615943129739</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>122.2759278423984</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794369</v>
+        <v>123.677936592443</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295879</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627852</v>
+        <v>129.9541167757913</v>
       </c>
       <c r="H16" t="n">
-        <v>110.5905362416711</v>
+        <v>24.21595253513658</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.007006037962</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>201.5294812451442</v>
       </c>
       <c r="U16" t="n">
-        <v>39.44422434341721</v>
+        <v>244.3463955914164</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6260432089465</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7581234452876</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.4395791179867</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753965</v>
+        <v>351.415486264818</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>351.319863176836</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048435</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252457</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228228</v>
       </c>
       <c r="G17" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630696</v>
       </c>
       <c r="H17" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955327</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364944</v>
+        <v>30.78476345307104</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139202</v>
+        <v>79.22478285081363</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201628</v>
+        <v>165.2809376095832</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200585</v>
       </c>
       <c r="V17" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138576</v>
       </c>
       <c r="W17" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531566</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497104</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183643</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270774</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108741</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787095</v>
+        <v>103.1962166272926</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791559</v>
+        <v>104.5982253773372</v>
       </c>
       <c r="F19" t="n">
-        <v>98.30140663806652</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606855</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014978</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426898</v>
+        <v>53.9554163741555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.73658314890622</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358623</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300384</v>
       </c>
       <c r="U19" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763106</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068467</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431878</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158869</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220964</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>351.415486264818</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>351.319863176836</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048435</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252457</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228228</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630696</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955327</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364944</v>
+        <v>30.78476345307104</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139202</v>
+        <v>79.22478285081363</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201616</v>
+        <v>165.2809376095832</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200585</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138577</v>
       </c>
       <c r="W20" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531566</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497104</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183643</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270774</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787095</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791559</v>
+        <v>84.54397005058171</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806652</v>
+        <v>108.2813330274881</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606855</v>
       </c>
       <c r="H22" t="n">
-        <v>83.42797265014978</v>
+        <v>93.40789903957139</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426898</v>
+        <v>60.47910383369058</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890622</v>
+        <v>29.71650953832782</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358623</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300384</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763106</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068467</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431878</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158869</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220964</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753964</v>
+        <v>351.4154862648181</v>
       </c>
       <c r="C23" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768361</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048436</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252458</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334031</v>
+        <v>362.1166263228229</v>
       </c>
       <c r="G23" t="n">
-        <v>339.9575932736479</v>
+        <v>349.9375196630697</v>
       </c>
       <c r="H23" t="n">
-        <v>243.116004406111</v>
+        <v>253.0959307955328</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364942</v>
+        <v>30.78476345307113</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139199</v>
+        <v>79.22478285081371</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201616</v>
+        <v>165.2809376095833</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306368</v>
+        <v>199.7864052200586</v>
       </c>
       <c r="V23" t="n">
-        <v>281.6557711244359</v>
+        <v>291.6356975138577</v>
       </c>
       <c r="W23" t="n">
-        <v>315.2392898637349</v>
+        <v>325.2192162531567</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602888</v>
+        <v>341.9334822497106</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289426</v>
+        <v>342.2238247183644</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270775</v>
       </c>
       <c r="C25" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108742</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787092</v>
+        <v>103.1962166272926</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791557</v>
+        <v>77.64224776662813</v>
       </c>
       <c r="F25" t="n">
-        <v>98.3014066380665</v>
+        <v>108.2813330274882</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606856</v>
       </c>
       <c r="H25" t="n">
-        <v>83.42797265014975</v>
+        <v>93.40789903957148</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426895</v>
+        <v>60.47910383369067</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890619</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358624</v>
       </c>
       <c r="T25" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300385</v>
       </c>
       <c r="U25" t="n">
-        <v>215.2867579868889</v>
+        <v>225.2666843763106</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174251</v>
+        <v>216.4434060068468</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431879</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2770155264653</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220965</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2716,13 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
@@ -2731,7 +2731,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>5.491601933768289</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>122.0082717169589</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>88.0431457716975</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>124.4596155679885</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>341.3399367874144</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>352.1366999334012</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>339.957593273648</v>
@@ -3047,7 +3047,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364947</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139205</v>
       </c>
       <c r="T32" t="n">
         <v>155.3010112201617</v>
@@ -3086,16 +3086,16 @@
         <v>189.8064788306369</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>291.9555011765027</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787098</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791562</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806655</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H34" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014981</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426901</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890625</v>
       </c>
       <c r="S34" t="n">
         <v>119.8444424464407</v>
@@ -3284,7 +3284,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364947</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139205</v>
       </c>
       <c r="T35" t="n">
         <v>155.3010112201617</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C37" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787098</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791562</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806655</v>
       </c>
       <c r="G37" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H37" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014981</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426901</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890625</v>
       </c>
       <c r="S37" t="n">
         <v>119.8444424464407</v>
@@ -3557,7 +3557,7 @@
         <v>155.3010112201617</v>
       </c>
       <c r="U38" t="n">
-        <v>189.8064788306369</v>
+        <v>189.8064788306363</v>
       </c>
       <c r="V38" t="n">
         <v>281.655771124436</v>
@@ -3749,7 +3749,7 @@
         <v>345.5134053358241</v>
       </c>
       <c r="F41" t="n">
-        <v>352.1366999334012</v>
+        <v>352.1366999334013</v>
       </c>
       <c r="G41" t="n">
         <v>339.957593273648</v>
@@ -3758,7 +3758,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I41" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T41" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U41" t="n">
         <v>189.8064788306369</v>
@@ -3901,22 +3901,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D43" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E43" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F43" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G43" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H43" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I43" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S43" t="n">
         <v>119.8444424464407</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.83102066230052</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C2" t="n">
-        <v>33.74683401597471</v>
+        <v>1671.948915169287</v>
       </c>
       <c r="D2" t="n">
-        <v>33.32330814943931</v>
+        <v>1267.484985262347</v>
       </c>
       <c r="E2" t="n">
-        <v>23.02349670674008</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F2" t="n">
-        <v>6.033488700831693</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>1.345608634067944</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>1.345608634067944</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>1.345608634067944</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1.345608634067944</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>17.99751548065875</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>33.97661801021559</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>50.62852485680639</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>50.62852485680639</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.62852485680639</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>50.29042369748881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>50.29042369748881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>46.01179628638593</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>46.01179628638593</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>46.01179628638593</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.01179628638593</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.32562464588472</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>18.33561663997633</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>18.33561663997633</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>18.33561663997633</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>18.33561663997633</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>1.345608634067944</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345608634067944</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>1.345608634067944</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>1.345608634067944</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1.345608634067944</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>17.32471116362478</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N3" t="n">
-        <v>33.97661801021559</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>33.97661801021559</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>50.62852485680639</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.2804317033972</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>50.29042369748881</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>50.29042369748881</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>50.29042369748881</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>50.29042369748881</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>50.29042369748881</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>50.29042369748881</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.29042369748881</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.29042369748881</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C4" t="n">
-        <v>50.29042369748881</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>50.29042369748881</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>50.29042369748881</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>33.30041569158043</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>33.30041569158043</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>16.31040768567204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>15.42815803927846</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>32.08006488586927</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>32.08006488586927</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>32.08006488586927</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>48.73197173246007</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>50.62852485680639</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>67.2804317033972</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>50.29042369748881</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>50.29042369748881</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="U4" t="n">
-        <v>50.29042369748881</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="V4" t="n">
-        <v>50.29042369748881</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="W4" t="n">
-        <v>50.29042369748881</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="X4" t="n">
-        <v>50.29042369748881</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.29042369748881</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>519.2503970329944</v>
+        <v>733.9275993281359</v>
       </c>
       <c r="C5" t="n">
-        <v>513.1662103866686</v>
+        <v>727.84341268181</v>
       </c>
       <c r="D5" t="n">
-        <v>279.4819130905639</v>
+        <v>727.4198868152746</v>
       </c>
       <c r="E5" t="n">
-        <v>269.1821016478646</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>252.1920936419562</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>18.50779634585149</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>18.50779634585149</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>18.50779634585149</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>247.5417761257637</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>426.7652120431854</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>426.7652120431854</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>655.7991918230977</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>884.8331716030099</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>884.8331716030099</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>884.8331716030099</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>884.8331716030099</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925747</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>925.3898172925747</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>925.3898172925747</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>691.70551999647</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>691.70551999647</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>525.4311726570799</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>525.4311726570799</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y5" t="n">
-        <v>525.4311726570799</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658.0579435938917</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>524.0628723428374</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>407.1657145622298</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>286.6728985545578</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>196.2451219957968</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>89.25500931013543</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>18.50779634585149</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>18.50779634585149</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>211.3206539084847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>437.7623383701203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>437.7623383701203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>437.7623383701203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>437.7623383701203</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>666.7963181500326</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
-        <v>666.7963181500326</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>895.8302979299448</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925747</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>817.3998074068835</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>658.0579435938917</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>658.0579435938917</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>658.0579435938917</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>658.0579435938917</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>658.0579435938917</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>658.0579435938917</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.3484869186153</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C7" t="n">
-        <v>294.3484869186153</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D7" t="n">
-        <v>134.8538422415253</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E7" t="n">
-        <v>134.8538422415253</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>134.8538422415253</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>134.8538422415253</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>134.8538422415253</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>18.50779634585149</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>32.59034575106202</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>32.59034575106202</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>261.6243255309743</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>261.6243255309743</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>490.6583053108865</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>654.1863472404515</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>859.8617874900639</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925747</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>925.3898172925747</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>738.9980491724849</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>738.9980491724849</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>738.9980491724849</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>528.0327842147201</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>528.0327842147201</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X7" t="n">
-        <v>294.3484869186153</v>
+        <v>1110.330448771344</v>
       </c>
       <c r="Y7" t="n">
-        <v>294.3484869186153</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.6061317805319</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C8" t="n">
-        <v>374.5219451342061</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D8" t="n">
-        <v>374.0984192676707</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7986078249715</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F8" t="n">
-        <v>346.8085998190631</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G8" t="n">
-        <v>342.1207197522994</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>417.4634743327321</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>788.1086150954382</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>1174.359867048153</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1425.330043794968</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1377.445254673458</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1120.384762932968</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>770.5472082694488</v>
+        <v>2010.104380606462</v>
       </c>
       <c r="W8" t="n">
-        <v>386.7869074046174</v>
+        <v>2010.104380606462</v>
       </c>
       <c r="X8" t="n">
-        <v>386.7869074046174</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.7869074046174</v>
+        <v>1609.460982775414</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>402.5972674193512</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>268.6021961682969</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>151.7050383876894</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>31.21222238001735</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>224.0250799426506</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>610.2763318953653</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>996.52758384808</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1382.778835800795</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>1382.778835800795</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>951.5583771802998</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>738.3252089166285</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>561.9992270555213</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>402.5972674193512</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198.4626134544739</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C10" t="n">
-        <v>198.4626134544739</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D10" t="n">
-        <v>198.4626134544739</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E10" t="n">
-        <v>198.4626134544739</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F10" t="n">
-        <v>198.4626134544739</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.06237997757</v>
+        <v>1456.944249282307</v>
       </c>
       <c r="U10" t="n">
-        <v>1038.264232523694</v>
+        <v>1174.146101828431</v>
       </c>
       <c r="V10" t="n">
-        <v>764.3784874632158</v>
+        <v>900.2603567679535</v>
       </c>
       <c r="W10" t="n">
-        <v>485.3088229720902</v>
+        <v>621.1906922768278</v>
       </c>
       <c r="X10" t="n">
-        <v>246.9649608317736</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="Y10" t="n">
-        <v>198.4626134544739</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1861.458945876359</v>
+        <v>2239.144376990148</v>
       </c>
       <c r="C11" t="n">
-        <v>1627.779537286714</v>
+        <v>1865.003392755863</v>
       </c>
       <c r="D11" t="n">
-        <v>1261.215450208993</v>
+        <v>1496.523069301369</v>
       </c>
       <c r="E11" t="n">
-        <v>884.775077555109</v>
+        <v>1118.166460270711</v>
       </c>
       <c r="F11" t="n">
-        <v>501.6445083380154</v>
+        <v>733.1196546768433</v>
       </c>
       <c r="G11" t="n">
-        <v>130.8160670600666</v>
+        <v>360.3749770221206</v>
       </c>
       <c r="H11" t="n">
-        <v>130.8160670600666</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J11" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="K11" t="n">
-        <v>620.5236483153982</v>
+        <v>623.6095872113233</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.20254586645</v>
+        <v>1336.200987023561</v>
       </c>
       <c r="M11" t="n">
-        <v>1830.521136858204</v>
+        <v>2112.519578015315</v>
       </c>
       <c r="N11" t="n">
-        <v>2583.702153496822</v>
+        <v>2778.555743982637</v>
       </c>
       <c r="O11" t="n">
-        <v>3227.333009913927</v>
+        <v>3422.186600399742</v>
       </c>
       <c r="P11" t="n">
-        <v>3756.489707833078</v>
+        <v>3951.343298318894</v>
       </c>
       <c r="Q11" t="n">
-        <v>4077.65071462837</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317935</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="S11" t="n">
-        <v>4020.826127941255</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="T11" t="n">
-        <v>3836.519486717333</v>
+        <v>4086.28142751349</v>
       </c>
       <c r="U11" t="n">
-        <v>3617.358837806062</v>
+        <v>4004.62545080372</v>
       </c>
       <c r="V11" t="n">
-        <v>3305.421125971761</v>
+        <v>3690.771502592645</v>
       </c>
       <c r="W11" t="n">
-        <v>2959.560667936149</v>
+        <v>3342.994808180259</v>
       </c>
       <c r="X11" t="n">
-        <v>2596.81711293432</v>
+        <v>2978.335016801657</v>
       </c>
       <c r="Y11" t="n">
-        <v>2233.780282711629</v>
+        <v>2613.381950202192</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J12" t="n">
-        <v>82.36414720635871</v>
+        <v>278.262943664917</v>
       </c>
       <c r="K12" t="n">
-        <v>82.36414720635871</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="L12" t="n">
-        <v>82.36414720635871</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="M12" t="n">
-        <v>82.36414720635871</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="N12" t="n">
-        <v>956.0222393179765</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="O12" t="n">
-        <v>1659.979329863871</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="P12" t="n">
-        <v>2128.853343056859</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q12" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>794.6914853376378</v>
+        <v>787.7889252504659</v>
       </c>
       <c r="C13" t="n">
-        <v>661.4979557285733</v>
+        <v>787.7889252504659</v>
       </c>
       <c r="D13" t="n">
-        <v>539.9031538807023</v>
+        <v>664.2778870258211</v>
       </c>
       <c r="E13" t="n">
-        <v>416.8921815782408</v>
+        <v>539.3506783465857</v>
       </c>
       <c r="F13" t="n">
-        <v>290.1608985180511</v>
+        <v>410.7031589096221</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8103502728136</v>
+        <v>279.4363742876106</v>
       </c>
       <c r="H13" t="n">
-        <v>160.8103502728136</v>
+        <v>165.8125255455124</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915357</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476422</v>
+        <v>324.6200285978152</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846204</v>
+        <v>619.7846615619171</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820312</v>
+        <v>944.3162506864519</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.928131482549</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R13" t="n">
-        <v>1861.555255987168</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="S13" t="n">
-        <v>1713.063330696297</v>
+        <v>1697.291970655666</v>
       </c>
       <c r="T13" t="n">
-        <v>1511.414434502218</v>
+        <v>1515.59166289861</v>
       </c>
       <c r="U13" t="n">
-        <v>1266.516129877561</v>
+        <v>1268.77712189718</v>
       </c>
       <c r="V13" t="n">
-        <v>1030.530227646302</v>
+        <v>1030.874983289146</v>
       </c>
       <c r="W13" t="n">
-        <v>1030.530227646302</v>
+        <v>787.7889252504659</v>
       </c>
       <c r="X13" t="n">
-        <v>830.0862083352043</v>
+        <v>787.7889252504659</v>
       </c>
       <c r="Y13" t="n">
-        <v>830.0862083352043</v>
+        <v>787.7889252504659</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2207.319403911972</v>
+        <v>2285.946346012569</v>
       </c>
       <c r="C14" t="n">
-        <v>1835.094656054461</v>
+        <v>1911.805361778284</v>
       </c>
       <c r="D14" t="n">
-        <v>1468.53056897674</v>
+        <v>1543.32503832379</v>
       </c>
       <c r="E14" t="n">
-        <v>1092.090196322856</v>
+        <v>1164.968429293132</v>
       </c>
       <c r="F14" t="n">
-        <v>708.9596271057625</v>
+        <v>779.9216236992644</v>
       </c>
       <c r="G14" t="n">
-        <v>338.1311858278137</v>
+        <v>407.1769460445416</v>
       </c>
       <c r="H14" t="n">
-        <v>130.8160670600666</v>
+        <v>132.2520551247045</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J14" t="n">
-        <v>82.36414720635871</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K14" t="n">
-        <v>341.6111460542118</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L14" t="n">
-        <v>1054.20254586645</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M14" t="n">
-        <v>1830.521136858204</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N14" t="n">
-        <v>2583.702153496822</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O14" t="n">
-        <v>3227.333009913927</v>
+        <v>3381.629954710177</v>
       </c>
       <c r="P14" t="n">
-        <v>3756.489707833078</v>
+        <v>3910.786652629329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4077.65071462837</v>
+        <v>4231.947659424621</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317935</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="S14" t="n">
-        <v>4020.826127941255</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="T14" t="n">
-        <v>3836.519486717333</v>
+        <v>4272.504305114186</v>
       </c>
       <c r="U14" t="n">
-        <v>3617.358837806062</v>
+        <v>4051.427419826141</v>
       </c>
       <c r="V14" t="n">
-        <v>3305.421125971762</v>
+        <v>3737.573471615067</v>
       </c>
       <c r="W14" t="n">
-        <v>3305.421125971762</v>
+        <v>3389.79677720268</v>
       </c>
       <c r="X14" t="n">
-        <v>2942.677570969933</v>
+        <v>3025.136985824078</v>
       </c>
       <c r="Y14" t="n">
-        <v>2579.640740747242</v>
+        <v>2660.183919224613</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J15" t="n">
-        <v>82.36414720635871</v>
+        <v>278.262943664917</v>
       </c>
       <c r="K15" t="n">
-        <v>82.36414720635871</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="L15" t="n">
-        <v>82.36414720635871</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="M15" t="n">
-        <v>905.3507862612573</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="N15" t="n">
-        <v>1779.008878372875</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="O15" t="n">
-        <v>1779.008878372875</v>
+        <v>1438.02629047611</v>
       </c>
       <c r="P15" t="n">
-        <v>1779.008878372875</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q15" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.3580927886366</v>
+        <v>753.3729611672765</v>
       </c>
       <c r="C16" t="n">
-        <v>573.164563179572</v>
+        <v>618.263195181438</v>
       </c>
       <c r="D16" t="n">
-        <v>573.164563179572</v>
+        <v>494.7521569567932</v>
       </c>
       <c r="E16" t="n">
-        <v>450.1535908771105</v>
+        <v>369.8249482775578</v>
       </c>
       <c r="F16" t="n">
-        <v>323.4223078169207</v>
+        <v>241.1774288405943</v>
       </c>
       <c r="G16" t="n">
-        <v>194.0717595716831</v>
+        <v>109.9106442185833</v>
       </c>
       <c r="H16" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228372</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915357</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476423</v>
+        <v>324.6200285978151</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846205</v>
+        <v>619.7846615619171</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820313</v>
+        <v>944.3162506864519</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764744</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.928131482549</v>
+        <v>1896.989244195466</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.928131482549</v>
+        <v>1896.989244195466</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.436206191678</v>
+        <v>1746.581082527821</v>
       </c>
       <c r="T16" t="n">
-        <v>1760.436206191678</v>
+        <v>1543.015949956968</v>
       </c>
       <c r="U16" t="n">
-        <v>1720.593555339742</v>
+        <v>1296.201408955537</v>
       </c>
       <c r="V16" t="n">
-        <v>1484.607653108483</v>
+        <v>1296.201408955537</v>
       </c>
       <c r="W16" t="n">
-        <v>1243.437831446576</v>
+        <v>1296.201408955537</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.993812135478</v>
+        <v>1093.841153267666</v>
       </c>
       <c r="Y16" t="n">
-        <v>856.1579563534619</v>
+        <v>905.0890611088757</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224931</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561461</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188926</v>
+        <v>725.6705041948831</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616724</v>
+        <v>372.1982621109743</v>
       </c>
       <c r="H17" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619515</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J17" t="n">
-        <v>336.549618674113</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K17" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L17" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M17" t="n">
-        <v>2363.619110587144</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N17" t="n">
-        <v>3116.800127225762</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O17" t="n">
-        <v>3227.333009913927</v>
+        <v>3763.516922538793</v>
       </c>
       <c r="P17" t="n">
-        <v>3756.489707833078</v>
+        <v>4272.504305114187</v>
       </c>
       <c r="Q17" t="n">
-        <v>4077.65071462837</v>
+        <v>4272.504305114187</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317935</v>
+        <v>4272.504305114187</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861984</v>
+        <v>4192.479271931546</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901664</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568246</v>
+        <v>3823.724380184434</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544173</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702601</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.251252894813</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.570621866162</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820436</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J18" t="n">
-        <v>275.1770047689919</v>
+        <v>278.262943664917</v>
       </c>
       <c r="K18" t="n">
-        <v>275.1770047689919</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="L18" t="n">
-        <v>483.7863759758209</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="M18" t="n">
-        <v>483.7863759758209</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="N18" t="n">
-        <v>483.7863759758209</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="O18" t="n">
-        <v>1187.743466521715</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="P18" t="n">
-        <v>1749.449359010245</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q18" t="n">
-        <v>2099.293823694229</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578618</v>
+        <v>577.6755619107137</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695259</v>
+        <v>461.8382314956891</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423836</v>
+        <v>357.599628841858</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606507</v>
+        <v>251.9448557334363</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211895</v>
+        <v>251.9448557334363</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966805</v>
+        <v>139.9505066822388</v>
       </c>
       <c r="H19" t="n">
-        <v>133.373417352085</v>
+        <v>139.9505066822388</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944905</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037247</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707815</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098271</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.584193392988</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429597</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019104</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552745</v>
+        <v>2048.100557019104</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182602</v>
+        <v>1916.964830922273</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909252</v>
+        <v>1732.672133922235</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205324</v>
+        <v>1505.130028491618</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894793</v>
+        <v>1286.500325454399</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153615</v>
+        <v>1062.686702986533</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632463</v>
+        <v>879.598882869475</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019586</v>
+        <v>710.1192262814989</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242188</v>
+        <v>2154.605484224931</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305406</v>
+        <v>1799.736935561461</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148414</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F20" t="n">
-        <v>692.342364118893</v>
+        <v>725.6705041948831</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616728</v>
+        <v>372.1982621109744</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619515</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J20" t="n">
-        <v>336.549618674113</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="K20" t="n">
-        <v>874.7091197831526</v>
+        <v>536.4647365400281</v>
       </c>
       <c r="L20" t="n">
-        <v>1054.20254586645</v>
+        <v>1249.056136352266</v>
       </c>
       <c r="M20" t="n">
-        <v>1830.521136858204</v>
+        <v>2025.37472734402</v>
       </c>
       <c r="N20" t="n">
-        <v>2583.702153496822</v>
+        <v>2778.555743982638</v>
       </c>
       <c r="O20" t="n">
-        <v>3227.333009913927</v>
+        <v>3422.186600399743</v>
       </c>
       <c r="P20" t="n">
-        <v>3756.489707833078</v>
+        <v>3951.343298318895</v>
       </c>
       <c r="Q20" t="n">
-        <v>4077.65071462837</v>
+        <v>4272.504305114187</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317935</v>
+        <v>4272.504305114187</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861983</v>
+        <v>4192.479271931546</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.39335255879</v>
+        <v>4025.528829901664</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184433</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654676</v>
+        <v>3529.142867544173</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539792</v>
+        <v>3200.638608702601</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.251252894812</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.83881315673</v>
+        <v>2509.570621866162</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820436</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>278.262943664917</v>
       </c>
       <c r="K21" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="L21" t="n">
-        <v>1187.743466521715</v>
+        <v>1395.157371849504</v>
       </c>
       <c r="M21" t="n">
-        <v>1187.743466521715</v>
+        <v>1395.157371849504</v>
       </c>
       <c r="N21" t="n">
-        <v>1187.743466521715</v>
+        <v>1395.157371849504</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.743466521715</v>
+        <v>1395.157371849504</v>
       </c>
       <c r="P21" t="n">
-        <v>1749.449359010245</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q21" t="n">
-        <v>2099.293823694229</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578621</v>
+        <v>547.658885609372</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695262</v>
+        <v>547.658885609372</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423837</v>
+        <v>547.658885609372</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606508</v>
+        <v>462.2609360633298</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211897</v>
+        <v>352.8858521971802</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966807</v>
+        <v>240.8915031459827</v>
       </c>
       <c r="H22" t="n">
-        <v>133.373417352085</v>
+        <v>146.5400899746985</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944905</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588541</v>
+        <v>362.3978568037247</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514383</v>
+        <v>676.4514038707815</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704455</v>
+        <v>1019.871907098271</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.181833011229</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.584193392988</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429597</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019104</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717762</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182603</v>
+        <v>1886.948154620932</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1702.655457620893</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.113352190276</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1256.483649153057</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1032.670026685191</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632465</v>
+        <v>849.5822065681334</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019588</v>
+        <v>680.1025499801572</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242189</v>
+        <v>2154.605484224932</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305407</v>
+        <v>1799.736935561461</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148415</v>
+        <v>1450.529047677781</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415259</v>
+        <v>1091.444874217937</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188924</v>
+        <v>725.6705041948834</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616723</v>
+        <v>372.1982621109746</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619515</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J23" t="n">
-        <v>336.549618674113</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K23" t="n">
-        <v>341.6111460542118</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.20254586645</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M23" t="n">
-        <v>1830.521136858204</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N23" t="n">
-        <v>2583.702153496822</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.333009913927</v>
+        <v>3381.629954710178</v>
       </c>
       <c r="P23" t="n">
-        <v>3756.489707833078</v>
+        <v>3910.78665262933</v>
       </c>
       <c r="Q23" t="n">
-        <v>4077.65071462837</v>
+        <v>4231.947659424622</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317935</v>
+        <v>4272.504305114187</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861984</v>
+        <v>4192.479271931546</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.39335255879</v>
+        <v>4025.528829901664</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568248</v>
+        <v>3823.724380184434</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654677</v>
+        <v>3529.142867544173</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539793</v>
+        <v>3200.638608702601</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458693</v>
+        <v>2855.251252894813</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156731</v>
+        <v>2509.570621866162</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319888</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463275</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820436</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J24" t="n">
-        <v>275.1770047689919</v>
+        <v>278.262943664917</v>
       </c>
       <c r="K24" t="n">
-        <v>275.1770047689919</v>
+        <v>734.0691999302157</v>
       </c>
       <c r="L24" t="n">
-        <v>936.2651766882802</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2651766882802</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="N24" t="n">
-        <v>1749.449359010245</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="O24" t="n">
-        <v>1749.449359010245</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="P24" t="n">
-        <v>1749.449359010245</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q24" t="n">
-        <v>2099.293823694229</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578617</v>
+        <v>760.7633820277695</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695259</v>
+        <v>644.9260516127453</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423836</v>
+        <v>540.6874489589143</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606507</v>
+        <v>462.2609360633302</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211895</v>
+        <v>352.8858521971805</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966805</v>
+        <v>240.8915031459829</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>146.5400899746986</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635871</v>
+        <v>85.45008610228373</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944905</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037247</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707814</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098271</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.181833011229</v>
+        <v>1354.867136279517</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.584193392988</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429596</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127397</v>
+        <v>2048.100557019103</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552744</v>
+        <v>2048.100557019103</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182602</v>
+        <v>1916.964830922273</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909252</v>
+        <v>1732.672133922234</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205323</v>
+        <v>1505.130028491617</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894793</v>
+        <v>1286.500325454398</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153615</v>
+        <v>1062.686702986531</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632461</v>
+        <v>1062.686702986531</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019584</v>
+        <v>893.2070463985547</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6260,7 +6260,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
         <v>3463.023532176683</v>
@@ -6269,7 +6269,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>578.3533189548407</v>
+        <v>892.9971097483482</v>
       </c>
       <c r="C28" t="n">
-        <v>437.0568573512421</v>
+        <v>751.7006481447495</v>
       </c>
       <c r="D28" t="n">
-        <v>437.0568573512421</v>
+        <v>622.0029143023444</v>
       </c>
       <c r="E28" t="n">
-        <v>437.0568573512421</v>
+        <v>490.8890100053488</v>
       </c>
       <c r="F28" t="n">
-        <v>437.0568573512421</v>
+        <v>356.0547949506249</v>
       </c>
       <c r="G28" t="n">
-        <v>299.6033771114703</v>
+        <v>218.6013147108533</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>98.79077035099488</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
         <v>1526.662838113797</v>
@@ -6406,28 +6406,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T28" t="n">
-        <v>1677.557726792176</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U28" t="n">
-        <v>1424.556490172984</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V28" t="n">
-        <v>1180.467655947191</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W28" t="n">
-        <v>931.1949022907506</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="X28" t="n">
-        <v>931.1949022907506</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2561145142001</v>
+        <v>1050.899905307708</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G29" t="n">
         <v>430.910136076462</v>
@@ -6506,7 +6506,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>111.2881081840224</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>567.0943644493211</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.0542420504813</v>
+        <v>182.1761681670849</v>
       </c>
       <c r="C31" t="n">
-        <v>213.0542420504813</v>
+        <v>182.1761681670849</v>
       </c>
       <c r="D31" t="n">
-        <v>213.0542420504813</v>
+        <v>182.1761681670849</v>
       </c>
       <c r="E31" t="n">
-        <v>213.0542420504813</v>
+        <v>182.1761681670849</v>
       </c>
       <c r="F31" t="n">
-        <v>213.0542420504813</v>
+        <v>182.1761681670849</v>
       </c>
       <c r="G31" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6619,7 +6619,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
         <v>320.2864794362206</v>
@@ -6646,25 +6646,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1730.557429382061</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1520.805601193448</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1267.804364574257</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V31" t="n">
-        <v>1023.715530348464</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W31" t="n">
-        <v>774.4427766920231</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="X31" t="n">
-        <v>565.8958253863914</v>
+        <v>535.017751502995</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.957037609841</v>
+        <v>340.0789637264445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2353.181062726242</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1943.056472039512</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1538.592542132572</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415258</v>
+        <v>1124.252326649469</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188926</v>
+        <v>703.2219146031567</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616724</v>
+        <v>359.8304062459365</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>114.2586846236021</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>336.549618674113</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>874.7091197831526</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
-        <v>1587.300519595391</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>1830.521136858203</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>2583.702153496821</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3227.333009913926</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>3756.489707833077</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4077.650714628369</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861983</v>
+        <v>4592.240585075188</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4435.370876771995</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568247</v>
+        <v>4243.647160781452</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3948.74261413852</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3564.982313273688</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458692</v>
+        <v>3164.338915442641</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2763.402242390731</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>275.1770047689919</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>730.9832610342906</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1187.743466521715</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1187.743466521715</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1187.743466521715</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1187.743466521715</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1749.449359010245</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578617</v>
+        <v>725.2201177421259</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695259</v>
+        <v>619.46352105379</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423836</v>
+        <v>525.3056521266476</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606507</v>
+        <v>429.7316127449147</v>
       </c>
       <c r="F34" t="n">
-        <v>319.5577121211895</v>
+        <v>330.4372626054535</v>
       </c>
       <c r="G34" t="n">
-        <v>217.6440967966807</v>
+        <v>228.5236472809445</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3734173520849</v>
+        <v>144.2529678363489</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240927</v>
+        <v>171.3628210083571</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588544</v>
+        <v>389.9517226431188</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514385</v>
+        <v>713.885396835703</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704455</v>
+        <v>1067.18602718872</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.181833011229</v>
+        <v>1412.061383495494</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250227</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412363</v>
+        <v>2005.370581896628</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611662</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037009</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182602</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909252</v>
+        <v>1819.732287393516</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894793</v>
+        <v>1393.721946379057</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153615</v>
+        <v>1179.98905763788</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632464</v>
+        <v>1006.981971247511</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019587</v>
+        <v>847.5830483862228</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2080.954409242187</v>
       </c>
       <c r="C35" t="n">
-        <v>1736.166594305405</v>
+        <v>1736.166594305404</v>
       </c>
       <c r="D35" t="n">
         <v>1397.039440148413</v>
@@ -6929,10 +6929,10 @@
         <v>348.9508557616723</v>
       </c>
       <c r="H35" t="n">
-        <v>103.379134139338</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I35" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
         <v>336.549618674113</v>
@@ -6944,34 +6944,34 @@
         <v>1587.300519595391</v>
       </c>
       <c r="M35" t="n">
-        <v>2363.619110587144</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N35" t="n">
-        <v>3116.800127225762</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O35" t="n">
-        <v>3760.430983642867</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P35" t="n">
-        <v>4077.65071462837</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q35" t="n">
-        <v>4077.65071462837</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R35" t="n">
-        <v>4118.207360317935</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861984</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T35" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.669636568248</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V35" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W35" t="n">
         <v>3096.745332539791</v>
@@ -7011,7 +7011,7 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I36" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J36" t="n">
         <v>275.1770047689919</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578624</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695265</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423841</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606512</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211896</v>
+        <v>319.55771212119</v>
       </c>
       <c r="G37" t="n">
-        <v>217.6440967966807</v>
+        <v>217.644096796681</v>
       </c>
       <c r="H37" t="n">
         <v>133.373417352085</v>
       </c>
       <c r="I37" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240931</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588548</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514389</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O37" t="n">
-        <v>1724.779017250228</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P37" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q37" t="n">
         <v>2124.055635127398</v>
@@ -7126,7 +7126,7 @@
         <v>1808.852736909253</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.391365205324</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V37" t="n">
         <v>1382.842395894794</v>
@@ -7135,10 +7135,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632465</v>
+        <v>996.102420763247</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019593</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2080.954409242188</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.166594305406</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E38" t="n">
         <v>1048.036000415258</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188931</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H38" t="n">
         <v>103.379134139338</v>
       </c>
       <c r="I38" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J38" t="n">
         <v>336.549618674113</v>
       </c>
       <c r="K38" t="n">
-        <v>341.6111460542118</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.20254586645</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M38" t="n">
-        <v>1830.521136858204</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.702153496822</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O38" t="n">
-        <v>3227.333009913927</v>
+        <v>3267.889655603491</v>
       </c>
       <c r="P38" t="n">
-        <v>3756.489707833078</v>
+        <v>3797.046353522642</v>
       </c>
       <c r="Q38" t="n">
-        <v>4077.65071462837</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R38" t="n">
-        <v>4118.207360317935</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S38" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T38" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U38" t="n">
         <v>3699.669636568247</v>
@@ -7217,7 +7217,7 @@
         <v>2761.438710458692</v>
       </c>
       <c r="Y38" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I39" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J39" t="n">
         <v>275.1770047689919</v>
@@ -7257,22 +7257,22 @@
         <v>730.9832610342906</v>
       </c>
       <c r="L39" t="n">
-        <v>1187.743466521715</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="M39" t="n">
-        <v>1187.743466521715</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="N39" t="n">
-        <v>1187.743466521715</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="O39" t="n">
-        <v>1187.743466521715</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="P39" t="n">
-        <v>1749.449359010245</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q39" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R39" t="n">
         <v>2128.853343056859</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578623</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695264</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D40" t="n">
-        <v>514.426101642384</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E40" t="n">
-        <v>418.852062260651</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211898</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966808</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H40" t="n">
         <v>133.373417352085</v>
       </c>
       <c r="I40" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
         <v>160.4832705240929</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588543</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514383</v>
       </c>
       <c r="M40" t="n">
         <v>1056.306476704455</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O40" t="n">
-        <v>1724.779017250228</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P40" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2124.055635127399</v>
+        <v>2124.055635127397</v>
       </c>
       <c r="R40" t="n">
-        <v>2104.119692552746</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S40" t="n">
         <v>1983.064700182603</v>
       </c>
       <c r="T40" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U40" t="n">
-        <v>1591.391365205325</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V40" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632469</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019592</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H41" t="n">
         <v>103.3791341393379</v>
@@ -7412,10 +7412,10 @@
         <v>336.549618674113</v>
       </c>
       <c r="K41" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M41" t="n">
         <v>1830.521136858203</v>
@@ -7445,16 +7445,16 @@
         <v>3699.669636568247</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W41" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X41" t="n">
         <v>2761.438710458692</v>
       </c>
       <c r="Y41" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J42" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K42" t="n">
-        <v>538.1704034716574</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L42" t="n">
-        <v>1199.258575390946</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="M42" t="n">
-        <v>1199.258575390946</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N42" t="n">
-        <v>1199.258575390946</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O42" t="n">
-        <v>1567.147450568329</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P42" t="n">
-        <v>2128.853343056859</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q42" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R42" t="n">
         <v>2128.853343056859</v>
@@ -7549,13 +7549,13 @@
         <v>608.5839705695262</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423836</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606507</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G43" t="n">
         <v>217.6440967966807</v>
@@ -7567,10 +7567,10 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
-        <v>160.4832705240929</v>
+        <v>160.483270524093</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588546</v>
       </c>
       <c r="L43" t="n">
         <v>703.0058463514388</v>
@@ -7582,10 +7582,10 @@
         <v>1401.18183301123</v>
       </c>
       <c r="O43" t="n">
-        <v>1724.779017250228</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P43" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q43" t="n">
         <v>2124.055635127398</v>
@@ -7628,16 +7628,16 @@
         <v>1736.166594305405</v>
       </c>
       <c r="D44" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188925</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H44" t="n">
         <v>103.3791341393379</v>
@@ -7655,13 +7655,13 @@
         <v>1587.300519595391</v>
       </c>
       <c r="M44" t="n">
-        <v>1830.521136858203</v>
+        <v>2359.677834777354</v>
       </c>
       <c r="N44" t="n">
-        <v>2583.702153496821</v>
+        <v>3112.858851415972</v>
       </c>
       <c r="O44" t="n">
-        <v>3227.333009913926</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="P44" t="n">
         <v>3756.489707833077</v>
@@ -7825,13 +7825,13 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2124.055635127397</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R46" t="n">
         <v>2104.119692552745</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.064700182602</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T46" t="n">
         <v>1808.852736909252</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
-        <v>110.1103323828948</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>109.0527983622323</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0098835516324</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>104.1322507405728</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8064,22 +8064,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>73.7047913440304</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>70.0135013195993</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>71.07974292865305</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.51272643068802</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>69.07047748491613</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>68.53275343426874</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>57.99060829960877</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>72.59994956575409</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>304.6710456564516</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>270.1701633271785</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>324.6376787801891</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>324.259745079763</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>284.5547569882877</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>289.0989333231437</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q6" t="n">
-        <v>288.0400728279824</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,19 +8374,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>285.9757482170452</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315631</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>221.2547384058903</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
         <v>263.5328115890082</v>
@@ -8453,19 +8453,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>467.6792555304859</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8532,25 +8532,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>206.4630870275083</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8693,13 +8693,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>533.5448905386545</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>765.676094764015</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8711,7 +8711,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8778,19 +8778,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
-        <v>527.8697493391551</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>351.0020450750889</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8939,7 +8939,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>357.5775418767826</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9003,31 +9003,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>888.863919147406</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>371.9455010937738</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>204.8391520784742</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>607.7780325489588</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>266.8310603834035</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9255,7 +9255,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>544.7067436507366</v>
       </c>
       <c r="L20" t="n">
-        <v>276.7918890560744</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
@@ -9422,7 +9422,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>517.4884687476415</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -9495,7 +9495,7 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9638,7 +9638,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>94.24904359250881</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9650,7 +9650,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>357.5775418767835</v>
       </c>
       <c r="P23" t="n">
         <v>628.1510783507341</v>
@@ -9717,22 +9717,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>874.5915573553307</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9957,7 +9957,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>517.4884687476416</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9975,7 +9975,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>69.59591606606023</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10212,7 +10212,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
-        <v>338.9676156316031</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
         <v>853.701196452193</v>
@@ -10370,7 +10370,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>517.4884687476415</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10449,7 +10449,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>338.9676156316031</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10601,10 +10601,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>414.0733339733113</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10823,7 +10823,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>94.24904359250881</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10832,7 +10832,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>356.1847034831256</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10844,7 +10844,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>517.4884687476415</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10923,7 +10923,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>94.24904359250789</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>338.9676156316031</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11136,13 +11136,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476415</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11151,16 +11151,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>338.9676156316031</v>
+        <v>873.4693307014533</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11312,7 +11312,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>137.1598858751867</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976324</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>49.86447466817689</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.30449406591949</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.0266994924917</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.2610891615863</v>
+        <v>150.1989389421833</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.5905362416711</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>21.64617656565932</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452876</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>65.03660041756282</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.530525335980301</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>98.30449406591946</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>184.3606488246891</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552563</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293923</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>88.2716577195406</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579031</v>
+        <v>79.55881504879642</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042755</v>
+        <v>48.79622075343366</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>199.6324072321381</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.0050972349931</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.132972000360463e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>108.2813330274881</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>93.40789903957139</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6.523687459535076</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>29.71650953832782</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>114.6789571108741</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.1962166272926</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>20.0542553267555</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>26.95597761070916</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>29.71650953832791</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>181.256941915887</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>80.19204177661072</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>85.64603818976805</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
@@ -24850,13 +24850,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>48.03579966567652</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>30.56929314456238</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1139897.751958295</v>
+        <v>1181829.686995347</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1158500.52330528</v>
+        <v>1181829.686995347</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1172271.351161101</v>
+        <v>1181829.686995347</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1123067.430023928</v>
+        <v>1139666.543943052</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1123067.430023928</v>
+        <v>1139666.543943052</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1205822.502112617</v>
+        <v>1197795.920123521</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1205822.502112616</v>
+        <v>1197795.920123521</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1205822.502112616</v>
+        <v>1197795.920123521</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1177524.597678486</v>
+        <v>1177524.597678485</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1205822.502112616</v>
+        <v>1212251.986765468</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16288.23930324569</v>
+        <v>16288.2393032457</v>
       </c>
       <c r="C2" t="n">
         <v>16288.23930324569</v>
@@ -26320,19 +26320,19 @@
         <v>16288.23930324569</v>
       </c>
       <c r="E2" t="n">
-        <v>15088.89043239515</v>
+        <v>15303.02691855356</v>
       </c>
       <c r="F2" t="n">
-        <v>15088.89043239515</v>
+        <v>15303.02691855356</v>
       </c>
       <c r="G2" t="n">
-        <v>16288.2393032457</v>
+        <v>16145.48164580673</v>
       </c>
       <c r="H2" t="n">
-        <v>16288.23930324571</v>
+        <v>16145.48164580675</v>
       </c>
       <c r="I2" t="n">
-        <v>16288.23930324568</v>
+        <v>16145.48164580673</v>
       </c>
       <c r="J2" t="n">
         <v>15784.94380923146</v>
@@ -26341,19 +26341,19 @@
         <v>15784.94380923146</v>
       </c>
       <c r="L2" t="n">
-        <v>16288.2393032457</v>
+        <v>16288.23930324571</v>
       </c>
       <c r="M2" t="n">
         <v>16288.2393032457</v>
       </c>
       <c r="N2" t="n">
-        <v>16288.23930324571</v>
+        <v>16288.23930324568</v>
       </c>
       <c r="O2" t="n">
-        <v>16288.2393032457</v>
+        <v>16288.23930324568</v>
       </c>
       <c r="P2" t="n">
-        <v>16288.2393032457</v>
+        <v>16288.23930324569</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.49696633352</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.69823741176</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557333</v>
+        <v>191541.2671994909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321707</v>
+        <v>15263.76897208467</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231413</v>
+        <v>170419.581595123</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.47408757886</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.86860860745</v>
+        <v>43411.34198497276</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302947</v>
+        <v>102190.6169864201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.102507853336</v>
+        <v>8335.384408985823</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327088.9179730089</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="C4" t="n">
-        <v>276500.6890592079</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="D4" t="n">
-        <v>239052.4089664804</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>120524.3521333389</v>
+        <v>120449.2054397813</v>
       </c>
       <c r="F4" t="n">
-        <v>120524.352133339</v>
+        <v>120449.2054397813</v>
       </c>
       <c r="G4" t="n">
-        <v>147973.3646169926</v>
+        <v>139730.1260186998</v>
       </c>
       <c r="H4" t="n">
-        <v>147973.3646169926</v>
+        <v>139730.1260186998</v>
       </c>
       <c r="I4" t="n">
-        <v>147973.3646169925</v>
+        <v>139730.1260186998</v>
       </c>
       <c r="J4" t="n">
         <v>118911.6321885296</v>
@@ -26445,10 +26445,10 @@
         <v>118911.6321885296</v>
       </c>
       <c r="L4" t="n">
-        <v>147973.3646169926</v>
+        <v>130489.075026508</v>
       </c>
       <c r="M4" t="n">
-        <v>147973.3646169926</v>
+        <v>147973.3646169925</v>
       </c>
       <c r="N4" t="n">
         <v>147973.3646169926</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284714</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047773</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047773</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.62130334973</v>
+        <v>69540.93243262047</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.62130334973</v>
+        <v>69540.93243262047</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.62130334973</v>
+        <v>69540.93243262047</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,13 +26497,13 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
+        <v>76303.07967139044</v>
+      </c>
+      <c r="M5" t="n">
         <v>68034.62130334972</v>
       </c>
-      <c r="M5" t="n">
-        <v>68034.62130334973</v>
-      </c>
       <c r="N5" t="n">
-        <v>68034.62130334973</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="O5" t="n">
         <v>68034.62130334972</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351087.7462600893</v>
+        <v>-437095.881947957</v>
       </c>
       <c r="C6" t="n">
-        <v>-377213.4719451428</v>
+        <v>-262140.3720548429</v>
       </c>
       <c r="D6" t="n">
-        <v>-329442.7569094597</v>
+        <v>-262140.3720548429</v>
       </c>
       <c r="E6" t="n">
-        <v>-392113.7216014512</v>
+        <v>-364722.8871496656</v>
       </c>
       <c r="F6" t="n">
-        <v>-171186.5534457179</v>
+        <v>-173181.6199501747</v>
       </c>
       <c r="G6" t="n">
-        <v>-221449.7974903137</v>
+        <v>-208403.6215433421</v>
       </c>
       <c r="H6" t="n">
-        <v>-199719.7466170966</v>
+        <v>-193139.8525712574</v>
       </c>
       <c r="I6" t="n">
-        <v>-199719.7466170966</v>
+        <v>-193139.8525712573</v>
       </c>
       <c r="J6" t="n">
-        <v>-218323.9418184771</v>
+        <v>-346941.7563006874</v>
       </c>
       <c r="K6" t="n">
-        <v>-231684.3192437418</v>
+        <v>-176522.1747055643</v>
       </c>
       <c r="L6" t="n">
-        <v>-255370.615225704</v>
+        <v>-233915.2573796254</v>
       </c>
       <c r="M6" t="n">
-        <v>-359060.5500473913</v>
+        <v>-301910.3636035167</v>
       </c>
       <c r="N6" t="n">
-        <v>-199719.7466170966</v>
+        <v>-199719.7466170965</v>
       </c>
       <c r="O6" t="n">
-        <v>-201588.8491249499</v>
+        <v>-208055.1310260824</v>
       </c>
       <c r="P6" t="n">
         <v>-199719.7466170966</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="F2" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="N2" t="n">
         <v>64.68340799244808</v>
       </c>
       <c r="O2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P2" t="n">
         <v>64.68340799244812</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>231.3474543231437</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278547</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278547</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278547</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152133</v>
+        <v>19.07971121510584</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816634</v>
+        <v>10.41923051123224</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763145</v>
+        <v>54.26417748121595</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.33637813481667</v>
+        <v>10.41923051123228</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>214.5273463972944</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270732</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292668</v>
+        <v>546.0625059085208</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791504</v>
+        <v>619.4837152242637</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972944</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437377186</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292671</v>
+        <v>410.0681248552195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152133</v>
+        <v>19.07971121510584</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816634</v>
+        <v>10.41923051123224</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972944</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270732</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292668</v>
+        <v>546.0625059085208</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>11.48287933845654</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>203.1643112867605</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>342.1033379798923</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.0848512481427</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>115.8350126126944</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89.10010363295538</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.09000186098496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>146.1647067046653</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.2912727167486</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>100.367434375629</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>167.7077425130395</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>215.4537822327038</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -27603,7 +27603,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>169.0718362847264</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>146.1473268010586</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>173.2935469429524</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>23.14243249994132</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>215.3110939901869</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.346782226147</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27792,7 +27792,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27831,16 +27831,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>62.29127530168611</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>4.612969195769779</v>
+        <v>50.8821129844703</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>172.5784779823144</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>268.9707772519801</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>68.64805504939415</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.4957071359561</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>174.4710177215963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792068</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="C14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="D14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="E14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="F14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="T14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="U14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="V14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="X14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="D16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="G16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="H16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="I16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="K16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="L16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="M16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="N16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="O16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="P16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="R16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="T16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="V16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="W16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="X16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.52084440092679</v>
+        <v>35.62377038792069</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302638</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244777</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302652</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244623</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302644</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244811</v>
+        <v>54.3836779403814</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="K37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="L37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="N37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="P37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="R37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="S37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>64.68340799244808</v>
       </c>
       <c r="U38" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244874</v>
       </c>
       <c r="V38" t="n">
         <v>64.68340799244808</v>
@@ -30414,7 +30414,7 @@
         <v>64.68340799244808</v>
       </c>
       <c r="N40" t="n">
-        <v>64.68340799244885</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="O40" t="n">
         <v>64.68340799244808</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.683407992448</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="44">
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.14050760561297</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>16.8201079258493</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,22 +34784,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>16.14050760561297</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.8201079258493</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.8201079258493</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>16.8201079258493</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>16.8201079258493</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>1.915710226612444</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>16.8201079258493</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>231.3474543231437</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>181.0337736539614</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>231.3474543231437</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>231.3474543231437</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>228.7289742036724</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>231.3474543231437</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q6" t="n">
-        <v>231.3474543231437</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>231.3474543231437</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3474543231437</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>165.1798403328939</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
         <v>207.7529699491034</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>374.3890310734405</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>149.7704685226696</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35413,13 +35413,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>438.0594924758097</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>672.7638040073957</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35431,7 +35431,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
-        <v>473.6101143363513</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.74564177992732</v>
+        <v>49.84856776692121</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466217</v>
+        <v>191.7372327336156</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161395</v>
+        <v>298.1460939031334</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728967</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O13" t="n">
-        <v>299.703279074133</v>
+        <v>297.8062050611269</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500302</v>
+        <v>243.3767403370241</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943721</v>
+        <v>101.813699481366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>261.8656554018718</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35659,7 +35659,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>264.3877662509994</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>831.2996354089886</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992732</v>
+        <v>49.84856776692121</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466217</v>
+        <v>191.7372327336156</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161395</v>
+        <v>298.1460939031334</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728967</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O16" t="n">
-        <v>299.703279074133</v>
+        <v>297.8062050611269</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500302</v>
+        <v>243.3767403370241</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943721</v>
+        <v>101.813699481366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,16 +35896,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>111.649376452691</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>514.1286692680746</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>210.7165365725545</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202705</v>
       </c>
       <c r="K19" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487214</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182392</v>
       </c>
       <c r="M19" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994844</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749965</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762328</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521299</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964718</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>455.5703539775195</v>
       </c>
       <c r="L20" t="n">
-        <v>181.3064909932295</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
@@ -36142,7 +36142,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3739449367924</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202705</v>
       </c>
       <c r="K22" t="n">
-        <v>220.7968703381427</v>
+        <v>210.8169439487214</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182392</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994844</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749965</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762328</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521299</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964718</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>5.112653919291684</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36370,7 +36370,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>264.3877662510004</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36437,22 +36437,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>821.3981639615807</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144867</v>
+        <v>68.92827898202697</v>
       </c>
       <c r="K25" t="n">
-        <v>220.7968703381431</v>
+        <v>210.8169439487214</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076609</v>
+        <v>317.2258051182391</v>
       </c>
       <c r="M25" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994843</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749964</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656544</v>
+        <v>316.8859162762326</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521299</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964717</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3739449367926</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.22667726606021</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M32" t="n">
-        <v>245.6773911745577</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
         <v>760.7889056955737</v>
@@ -37090,7 +37090,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3739449367924</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K34" t="n">
         <v>220.796870338143</v>
@@ -37312,7 +37312,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209636</v>
+        <v>245.6773911745577</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37321,10 +37321,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>320.4239706924271</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K37" t="n">
         <v>220.796870338143</v>
@@ -37543,7 +37543,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>5.112653919291684</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37552,7 +37552,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>263.2724127265063</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37564,7 +37564,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3739449367924</v>
+        <v>491.2320453030854</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>356.8693235889059</v>
       </c>
       <c r="N40" t="n">
-        <v>348.3589457644188</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O40" t="n">
         <v>326.8658426656543</v>
@@ -37780,13 +37780,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>5.112653919290765</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>245.6773911745577</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>245.6773911745577</v>
+        <v>780.1791062444078</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38032,7 +38032,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
